--- a/biology/Botanique/Cocktail_(rose)/Cocktail_(rose).xlsx
+++ b/biology/Botanique/Cocktail_(rose)/Cocktail_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Cocktail' est un cultivar de rosier obtenu par Meilland en 1957[1]. Il est distingué par la rose favorite du monde en 2015[2]. 
+'Cocktail' est un cultivar de rosier obtenu par Meilland en 1957. Il est distingué par la rose favorite du monde en 2015. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier remontant se présente comme rosier buissonnant (90 cm à 120 cm de hauteur) ou rosier grimpant (1,80 m à 2,40 m et même plus de 3 m s'il est palissé)[1] dans les climats doux[3]. Ses petites églantines simples de 5 cm à 7 cm forment des bouquets luxuriants. Elles sont de couleur rouge géranium à cœur pâle ou rouge géranium à cœur jaune avec des étamines jaunes et possèdent 5 à 7 pétales. Leur parfum très léger évoque les épices. Le feuillage est d'un beau vert vernissé et la floraison remontante particulièrement exubérante.
-'Cocktail' est issu de ('Sondermeldung'[4] x 'Orange Triumph') x 'Phyllis Bide (polyantha, 1923)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier remontant se présente comme rosier buissonnant (90 cm à 120 cm de hauteur) ou rosier grimpant (1,80 m à 2,40 m et même plus de 3 m s'il est palissé) dans les climats doux. Ses petites églantines simples de 5 cm à 7 cm forment des bouquets luxuriants. Elles sont de couleur rouge géranium à cœur pâle ou rouge géranium à cœur jaune avec des étamines jaunes et possèdent 5 à 7 pétales. Leur parfum très léger évoque les épices. Le feuillage est d'un beau vert vernissé et la floraison remontante particulièrement exubérante.
+'Cocktail' est issu de ('Sondermeldung' x 'Orange Triumph') x 'Phyllis Bide (polyantha, 1923).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa zone de rusticité s'étend à 5a, mais il a besoin d'être protégé des vents froids et dans une région froide en hiver il se porte mieux s'il est palissé sur un mur au sud. Il a besoin de soleil pour donner une bonne floraison.
 </t>
@@ -575,7 +591,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Certificat du Mérite de Bagatelle 1957
 Rose favorite du monde 2015</t>
